--- a/node.experiments/results.xlsx
+++ b/node.experiments/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Environnement de tests</t>
   </si>
@@ -28,6 +28,15 @@
   </si>
   <si>
     <t>Applications sur VM</t>
+  </si>
+  <si>
+    <t>movie.buddy.node.01</t>
+  </si>
+  <si>
+    <t>AllMoviesLoadingScenario</t>
+  </si>
+  <si>
+    <t>req/sec</t>
   </si>
 </sst>
 </file>
@@ -398,32 +407,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B4"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:5">
       <c r="B1" s="1">
         <v>41756</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/node.experiments/results.xlsx
+++ b/node.experiments/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Environnement de tests</t>
   </si>
@@ -37,16 +37,46 @@
   </si>
   <si>
     <t>req/sec</t>
+  </si>
+  <si>
+    <t>movie.buddy.node.02</t>
+  </si>
+  <si>
+    <t>avec optim io</t>
+  </si>
+  <si>
+    <t>Applications sur macbook</t>
+  </si>
+  <si>
+    <t>Durée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -70,14 +100,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,54 +453,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:7">
       <c r="B1" s="1">
         <v>41756</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="6" spans="2:7">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
